--- a/data/pca/factorExposure/factorExposure_2014-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.006031406698297108</v>
+        <v>-0.009759330784290022</v>
       </c>
       <c r="C2">
-        <v>-0.05561769179259321</v>
+        <v>-0.06616420413406082</v>
       </c>
       <c r="D2">
-        <v>-0.1710734714698347</v>
+        <v>-0.02676832870972567</v>
       </c>
       <c r="E2">
-        <v>0.1272322099103669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1546068441178862</v>
+      </c>
+      <c r="F2">
+        <v>-0.05227618369859522</v>
+      </c>
+      <c r="G2">
+        <v>0.1115267066182242</v>
+      </c>
+      <c r="H2">
+        <v>0.06498582484973513</v>
+      </c>
+      <c r="I2">
+        <v>0.07208025341064282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.02507548952848816</v>
+        <v>-0.01587139681356362</v>
       </c>
       <c r="C4">
-        <v>-0.1358590004540329</v>
+        <v>-0.1497835403307566</v>
       </c>
       <c r="D4">
-        <v>-0.1100365869864692</v>
+        <v>0.001808520830616476</v>
       </c>
       <c r="E4">
-        <v>0.05046434297632293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.1039305296042001</v>
+      </c>
+      <c r="F4">
+        <v>0.06751735579985878</v>
+      </c>
+      <c r="G4">
+        <v>0.04721228826452994</v>
+      </c>
+      <c r="H4">
+        <v>0.1040761598068561</v>
+      </c>
+      <c r="I4">
+        <v>-0.02949425834483638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.01196284391463718</v>
+        <v>-0.02911551656244613</v>
       </c>
       <c r="C6">
-        <v>-0.05629394296720961</v>
+        <v>-0.0659421440268812</v>
       </c>
       <c r="D6">
-        <v>-0.08286206321458103</v>
+        <v>-0.008551586135039901</v>
       </c>
       <c r="E6">
-        <v>0.07313208681121044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.109685224884351</v>
+      </c>
+      <c r="F6">
+        <v>-0.03419416489459794</v>
+      </c>
+      <c r="G6">
+        <v>-0.01245165107026628</v>
+      </c>
+      <c r="H6">
+        <v>0.04172378498303349</v>
+      </c>
+      <c r="I6">
+        <v>0.02838180685022006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01445820587994368</v>
+        <v>-0.005653047162579103</v>
       </c>
       <c r="C7">
-        <v>-0.04279218997525837</v>
+        <v>-0.06155207951931149</v>
       </c>
       <c r="D7">
-        <v>-0.05370379180130362</v>
+        <v>-0.007502598498674271</v>
       </c>
       <c r="E7">
-        <v>0.04743023574814546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0659338395985735</v>
+      </c>
+      <c r="F7">
+        <v>0.02647052380102195</v>
+      </c>
+      <c r="G7">
+        <v>-0.03568350081520821</v>
+      </c>
+      <c r="H7">
+        <v>0.08469800756517377</v>
+      </c>
+      <c r="I7">
+        <v>0.003252380586021978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01214671292537107</v>
+        <v>0.008737301602061029</v>
       </c>
       <c r="C8">
-        <v>-0.05485928548746126</v>
+        <v>-0.0641030446199246</v>
       </c>
       <c r="D8">
-        <v>-0.08336953333129471</v>
+        <v>0.01210262964596487</v>
       </c>
       <c r="E8">
-        <v>0.09931443438745673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0847751225770349</v>
+      </c>
+      <c r="F8">
+        <v>0.02415568263292569</v>
+      </c>
+      <c r="G8">
+        <v>0.07416277130146583</v>
+      </c>
+      <c r="H8">
+        <v>0.02223164582979276</v>
+      </c>
+      <c r="I8">
+        <v>0.009927016602435555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.01206402459724926</v>
+        <v>-0.008884899323174668</v>
       </c>
       <c r="C9">
-        <v>-0.1086617105374985</v>
+        <v>-0.1162913833105322</v>
       </c>
       <c r="D9">
-        <v>-0.08920107781963439</v>
+        <v>-0.0006499171237720787</v>
       </c>
       <c r="E9">
-        <v>0.05269032882319103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0811058264110489</v>
+      </c>
+      <c r="F9">
+        <v>0.01585234034709205</v>
+      </c>
+      <c r="G9">
+        <v>0.01032929278377908</v>
+      </c>
+      <c r="H9">
+        <v>0.1004355558664568</v>
+      </c>
+      <c r="I9">
+        <v>-0.002366429024697705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2428252050258791</v>
+        <v>-0.24713822899976</v>
       </c>
       <c r="C10">
-        <v>0.07909033731987694</v>
+        <v>0.07725027181654169</v>
       </c>
       <c r="D10">
-        <v>0.003955588239446596</v>
+        <v>0.005423848794253551</v>
       </c>
       <c r="E10">
-        <v>-0.08680404400008569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01790963957420141</v>
+      </c>
+      <c r="F10">
+        <v>0.007739764713239308</v>
+      </c>
+      <c r="G10">
+        <v>0.006092944893501503</v>
+      </c>
+      <c r="H10">
+        <v>0.03305708836613153</v>
+      </c>
+      <c r="I10">
+        <v>-0.186760559286606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.002287042380157542</v>
+        <v>-0.01034971362811683</v>
       </c>
       <c r="C11">
-        <v>-0.04742034306498137</v>
+        <v>-0.07115592074976479</v>
       </c>
       <c r="D11">
-        <v>-0.04146334569696776</v>
+        <v>0.007490174027838474</v>
       </c>
       <c r="E11">
-        <v>0.03584356862093202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.05106003109744355</v>
+      </c>
+      <c r="F11">
+        <v>0.01490007338987078</v>
+      </c>
+      <c r="G11">
+        <v>-0.0297348860528307</v>
+      </c>
+      <c r="H11">
+        <v>0.04020020339555001</v>
+      </c>
+      <c r="I11">
+        <v>0.001840809940637047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.007540142219007747</v>
+        <v>-0.01265455173056855</v>
       </c>
       <c r="C12">
-        <v>-0.05254313537983517</v>
+        <v>-0.06039075682731106</v>
       </c>
       <c r="D12">
-        <v>-0.03135633455997681</v>
+        <v>0.0001249102444518817</v>
       </c>
       <c r="E12">
-        <v>0.02427607123548864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03532946906397263</v>
+      </c>
+      <c r="F12">
+        <v>-0.01327862229246171</v>
+      </c>
+      <c r="G12">
+        <v>-0.02964210233296092</v>
+      </c>
+      <c r="H12">
+        <v>0.04385153965164423</v>
+      </c>
+      <c r="I12">
+        <v>-0.00842320606677362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.003217517426514226</v>
+        <v>-0.00252493452561976</v>
       </c>
       <c r="C13">
-        <v>-0.06668074664292678</v>
+        <v>-0.09874793185975005</v>
       </c>
       <c r="D13">
-        <v>-0.1168965242467495</v>
+        <v>-0.02790792109573649</v>
       </c>
       <c r="E13">
-        <v>0.1260875058494191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.160981200339939</v>
+      </c>
+      <c r="F13">
+        <v>-0.09596580979261386</v>
+      </c>
+      <c r="G13">
+        <v>-0.03164472242478526</v>
+      </c>
+      <c r="H13">
+        <v>0.09535308730843778</v>
+      </c>
+      <c r="I13">
+        <v>-0.08929396526368337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.007637661935999059</v>
+        <v>-0.006394894876406248</v>
       </c>
       <c r="C14">
-        <v>-0.03017530711189794</v>
+        <v>-0.05978713276000191</v>
       </c>
       <c r="D14">
-        <v>-0.05662771752023252</v>
+        <v>0.01073041288033181</v>
       </c>
       <c r="E14">
-        <v>0.0656256150302662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.1026193787735035</v>
+      </c>
+      <c r="F14">
+        <v>-0.02655492165934405</v>
+      </c>
+      <c r="G14">
+        <v>-0.06075030741114374</v>
+      </c>
+      <c r="H14">
+        <v>0.1597044457693979</v>
+      </c>
+      <c r="I14">
+        <v>0.03143939776310371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0007840736966743581</v>
+        <v>0.002559464957519862</v>
       </c>
       <c r="C15">
-        <v>-0.04751755703475516</v>
+        <v>-0.0627046133456286</v>
       </c>
       <c r="D15">
-        <v>-0.07461787598543111</v>
+        <v>-0.002700456175579602</v>
       </c>
       <c r="E15">
-        <v>0.07343904227066518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.0716172021450536</v>
+      </c>
+      <c r="F15">
+        <v>0.008391894983503692</v>
+      </c>
+      <c r="G15">
+        <v>-0.01292731916957724</v>
+      </c>
+      <c r="H15">
+        <v>0.05106833138093338</v>
+      </c>
+      <c r="I15">
+        <v>0.01711331573544363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.0052325880410826</v>
+        <v>-0.01031579729396284</v>
       </c>
       <c r="C16">
-        <v>-0.04423823688531385</v>
+        <v>-0.06106287910529638</v>
       </c>
       <c r="D16">
-        <v>-0.03200243907189432</v>
+        <v>0.0007664612586057163</v>
       </c>
       <c r="E16">
-        <v>0.02510720263438986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0355374986881973</v>
+      </c>
+      <c r="F16">
+        <v>0.0007275153931761351</v>
+      </c>
+      <c r="G16">
+        <v>-0.03125453014919742</v>
+      </c>
+      <c r="H16">
+        <v>0.03763194827014882</v>
+      </c>
+      <c r="I16">
+        <v>-0.006078141912310781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005389316312945857</v>
+        <v>-0.003025696941950114</v>
       </c>
       <c r="C20">
-        <v>-0.04412432690805464</v>
+        <v>-0.07119591325249273</v>
       </c>
       <c r="D20">
-        <v>-0.07963395849603308</v>
+        <v>-0.01467257880027541</v>
       </c>
       <c r="E20">
-        <v>0.03941696140823337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.07273111681072436</v>
+      </c>
+      <c r="F20">
+        <v>0.02103939097560381</v>
+      </c>
+      <c r="G20">
+        <v>-0.05995705554310897</v>
+      </c>
+      <c r="H20">
+        <v>0.06760204838236497</v>
+      </c>
+      <c r="I20">
+        <v>0.001251846275669876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.003029841157458051</v>
+        <v>-0.006225920973563887</v>
       </c>
       <c r="C21">
-        <v>-0.06910752764732193</v>
+        <v>-0.07518244558169107</v>
       </c>
       <c r="D21">
-        <v>-0.1100628023551474</v>
+        <v>-0.00956561391643085</v>
       </c>
       <c r="E21">
-        <v>0.04939491051576002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.09702072107116523</v>
+      </c>
+      <c r="F21">
+        <v>-0.07897063943399268</v>
+      </c>
+      <c r="G21">
+        <v>0.01554439563453279</v>
+      </c>
+      <c r="H21">
+        <v>0.1791952595590627</v>
+      </c>
+      <c r="I21">
+        <v>-0.04518076435094275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01298444305791832</v>
+        <v>0.01594287204324796</v>
       </c>
       <c r="C22">
-        <v>-0.07699357948690563</v>
+        <v>-0.1148903446443059</v>
       </c>
       <c r="D22">
-        <v>-0.2810078581167062</v>
+        <v>-0.07232398350808592</v>
       </c>
       <c r="E22">
-        <v>0.1055610477801682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3068448275328866</v>
+      </c>
+      <c r="F22">
+        <v>0.1151056983988174</v>
+      </c>
+      <c r="G22">
+        <v>0.3270353463926574</v>
+      </c>
+      <c r="H22">
+        <v>-0.4150725790817934</v>
+      </c>
+      <c r="I22">
+        <v>-0.03859580457243647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01333764195729203</v>
+        <v>0.01253061727960477</v>
       </c>
       <c r="C23">
-        <v>-0.07867963754996632</v>
+        <v>-0.1188388716021288</v>
       </c>
       <c r="D23">
-        <v>-0.2800582868208938</v>
+        <v>-0.07497650905107062</v>
       </c>
       <c r="E23">
-        <v>0.1047835596803187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3024243899376763</v>
+      </c>
+      <c r="F23">
+        <v>0.109383825893721</v>
+      </c>
+      <c r="G23">
+        <v>0.3173622863439705</v>
+      </c>
+      <c r="H23">
+        <v>-0.387626441670764</v>
+      </c>
+      <c r="I23">
+        <v>-0.04034807579428033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.003473134380715173</v>
+        <v>-0.01204759115135781</v>
       </c>
       <c r="C24">
-        <v>-0.07744904553522025</v>
+        <v>-0.08049203358338333</v>
       </c>
       <c r="D24">
-        <v>-0.03345636055847446</v>
+        <v>0.01484068412501366</v>
       </c>
       <c r="E24">
-        <v>0.03969790993786265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0422296685695162</v>
+      </c>
+      <c r="F24">
+        <v>0.007928786523573665</v>
+      </c>
+      <c r="G24">
+        <v>-0.02804846888242095</v>
+      </c>
+      <c r="H24">
+        <v>0.05810734737589748</v>
+      </c>
+      <c r="I24">
+        <v>-0.001173819662011675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.007634946730233766</v>
+        <v>-0.0162473480910838</v>
       </c>
       <c r="C25">
-        <v>-0.06324691713380105</v>
+        <v>-0.07216604895871381</v>
       </c>
       <c r="D25">
-        <v>-0.03451116497634116</v>
+        <v>0.00590715940393144</v>
       </c>
       <c r="E25">
-        <v>0.0169219622836425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03552278914994013</v>
+      </c>
+      <c r="F25">
+        <v>0.010518589857044</v>
+      </c>
+      <c r="G25">
+        <v>-0.02658109609749599</v>
+      </c>
+      <c r="H25">
+        <v>0.03898604880852465</v>
+      </c>
+      <c r="I25">
+        <v>-0.0200494245240779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.001724778259694732</v>
+        <v>-0.01654031412991706</v>
       </c>
       <c r="C26">
-        <v>-0.03088859231235276</v>
+        <v>-0.05286068961894807</v>
       </c>
       <c r="D26">
-        <v>-0.04699734643086412</v>
+        <v>0.02981037777199206</v>
       </c>
       <c r="E26">
-        <v>0.05997944899495947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.07395108310920856</v>
+      </c>
+      <c r="F26">
+        <v>0.0007093669147475502</v>
+      </c>
+      <c r="G26">
+        <v>-0.01963451692315906</v>
+      </c>
+      <c r="H26">
+        <v>0.1308676079741461</v>
+      </c>
+      <c r="I26">
+        <v>-0.01201863258888214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3177948947696901</v>
+        <v>-0.3130867196959735</v>
       </c>
       <c r="C28">
-        <v>0.09474890820862719</v>
+        <v>0.09749854407370578</v>
       </c>
       <c r="D28">
-        <v>0.003013864188412917</v>
+        <v>-0.01058495609788917</v>
       </c>
       <c r="E28">
-        <v>-0.07758360468812914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01750122617336468</v>
+      </c>
+      <c r="F28">
+        <v>0.04147261315891777</v>
+      </c>
+      <c r="G28">
+        <v>0.07784457422519092</v>
+      </c>
+      <c r="H28">
+        <v>0.06824109065629649</v>
+      </c>
+      <c r="I28">
+        <v>-0.1930546439267171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.004364856864528453</v>
+        <v>-0.002878420740972893</v>
       </c>
       <c r="C29">
-        <v>-0.03266612778385721</v>
+        <v>-0.06271267371811062</v>
       </c>
       <c r="D29">
-        <v>-0.074522799719952</v>
+        <v>0.004305985664263342</v>
       </c>
       <c r="E29">
-        <v>0.08245535260074253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1222409815370558</v>
+      </c>
+      <c r="F29">
+        <v>-0.03609853507382923</v>
+      </c>
+      <c r="G29">
+        <v>-0.08598739339870283</v>
+      </c>
+      <c r="H29">
+        <v>0.2013942275756318</v>
+      </c>
+      <c r="I29">
+        <v>0.05138614956160636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01881260205030104</v>
+        <v>-0.019981458259866</v>
       </c>
       <c r="C30">
-        <v>-0.1273992046138173</v>
+        <v>-0.1381815300614454</v>
       </c>
       <c r="D30">
-        <v>-0.1223503341171186</v>
+        <v>0.002884810805132806</v>
       </c>
       <c r="E30">
-        <v>0.09221983462496031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1132107071126286</v>
+      </c>
+      <c r="F30">
+        <v>0.02761335669029559</v>
+      </c>
+      <c r="G30">
+        <v>0.02253664150903811</v>
+      </c>
+      <c r="H30">
+        <v>0.03678678516516221</v>
+      </c>
+      <c r="I30">
+        <v>0.02987669247483855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.004947350006357215</v>
+        <v>-0.005462951571303908</v>
       </c>
       <c r="C31">
-        <v>-0.09345845265211891</v>
+        <v>-0.09782778340051508</v>
       </c>
       <c r="D31">
-        <v>0.001850045024486614</v>
+        <v>0.02228106421912938</v>
       </c>
       <c r="E31">
-        <v>0.02652544752915078</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01131878934087748</v>
+      </c>
+      <c r="F31">
+        <v>-0.001000962817135994</v>
+      </c>
+      <c r="G31">
+        <v>0.01690197632621105</v>
+      </c>
+      <c r="H31">
+        <v>0.05480835085985566</v>
+      </c>
+      <c r="I31">
+        <v>-0.02232803072839764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01404058544771771</v>
+        <v>-0.01729929683121418</v>
       </c>
       <c r="C32">
-        <v>-0.05459089898530355</v>
+        <v>-0.06283446841640615</v>
       </c>
       <c r="D32">
-        <v>-0.1348690191830324</v>
+        <v>-0.02462903570085766</v>
       </c>
       <c r="E32">
-        <v>0.05154916738404163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1085053550870258</v>
+      </c>
+      <c r="F32">
+        <v>-0.03408529840366745</v>
+      </c>
+      <c r="G32">
+        <v>0.04112708798780477</v>
+      </c>
+      <c r="H32">
+        <v>0.1059167288760596</v>
+      </c>
+      <c r="I32">
+        <v>-0.2056805812895228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.003550498346576291</v>
+        <v>-0.00682541690575617</v>
       </c>
       <c r="C33">
-        <v>-0.07597316913828331</v>
+        <v>-0.1020977405891534</v>
       </c>
       <c r="D33">
-        <v>-0.06221874775363111</v>
+        <v>-0.006001471567116445</v>
       </c>
       <c r="E33">
-        <v>0.05473891256151563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.07874183406459168</v>
+      </c>
+      <c r="F33">
+        <v>0.001984445129085184</v>
+      </c>
+      <c r="G33">
+        <v>-0.02649660291711669</v>
+      </c>
+      <c r="H33">
+        <v>0.06156804901537217</v>
+      </c>
+      <c r="I33">
+        <v>-0.03076965980605127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.000604324993785745</v>
+        <v>-0.01056377531128983</v>
       </c>
       <c r="C34">
-        <v>-0.05057730258667279</v>
+        <v>-0.0551500901501317</v>
       </c>
       <c r="D34">
-        <v>-0.0185678635696085</v>
+        <v>0.007036745833405527</v>
       </c>
       <c r="E34">
-        <v>0.02184657707500991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02565621011977845</v>
+      </c>
+      <c r="F34">
+        <v>-0.008004296670694203</v>
+      </c>
+      <c r="G34">
+        <v>-0.0292451407600247</v>
+      </c>
+      <c r="H34">
+        <v>0.01587002938946006</v>
+      </c>
+      <c r="I34">
+        <v>-0.02070064832636622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.0009303907190171388</v>
+        <v>-0.005912019753806869</v>
       </c>
       <c r="C35">
-        <v>-0.004528072876306428</v>
+        <v>-0.03031395061140979</v>
       </c>
       <c r="D35">
-        <v>-0.01188785881478415</v>
+        <v>-0.001927521827635877</v>
       </c>
       <c r="E35">
-        <v>0.005185027494968935</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04551156707027439</v>
+      </c>
+      <c r="F35">
+        <v>-0.005195235170936603</v>
+      </c>
+      <c r="G35">
+        <v>-0.03720881018867337</v>
+      </c>
+      <c r="H35">
+        <v>0.1145462091937149</v>
+      </c>
+      <c r="I35">
+        <v>0.002991600958614513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.001023307044068295</v>
+        <v>-0.009336435769437415</v>
       </c>
       <c r="C36">
-        <v>-0.0321366025210985</v>
+        <v>-0.0436265391354855</v>
       </c>
       <c r="D36">
-        <v>-0.04178628098317927</v>
+        <v>0.01847071711272025</v>
       </c>
       <c r="E36">
-        <v>0.06355563116682511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06895238942936449</v>
+      </c>
+      <c r="F36">
+        <v>0.001380546788768671</v>
+      </c>
+      <c r="G36">
+        <v>-0.01378257045896182</v>
+      </c>
+      <c r="H36">
+        <v>0.07558604562591668</v>
+      </c>
+      <c r="I36">
+        <v>-0.002138276109933143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004107216626509674</v>
+        <v>-0.005487406968988296</v>
       </c>
       <c r="C38">
-        <v>-0.02768217671797495</v>
+        <v>-0.05253428433484805</v>
       </c>
       <c r="D38">
-        <v>-0.04682648456967549</v>
+        <v>0.004709395644132541</v>
       </c>
       <c r="E38">
-        <v>0.04853431606989583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.07244874221534225</v>
+      </c>
+      <c r="F38">
+        <v>0.04538546316670277</v>
+      </c>
+      <c r="G38">
+        <v>-0.002902777776841156</v>
+      </c>
+      <c r="H38">
+        <v>0.06357316327991779</v>
+      </c>
+      <c r="I38">
+        <v>-0.03687798444930267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.003681489237850959</v>
+        <v>-0.008761366806508965</v>
       </c>
       <c r="C39">
-        <v>-0.09751411785250488</v>
+        <v>-0.1181942559594471</v>
       </c>
       <c r="D39">
-        <v>-0.08702764256529878</v>
+        <v>0.01470437317778161</v>
       </c>
       <c r="E39">
-        <v>0.06932205111776778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.07868410512724719</v>
+      </c>
+      <c r="F39">
+        <v>-0.009022967235405346</v>
+      </c>
+      <c r="G39">
+        <v>-0.04538225285667174</v>
+      </c>
+      <c r="H39">
+        <v>0.05168198340979766</v>
+      </c>
+      <c r="I39">
+        <v>0.04953749167819456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0007370023831874589</v>
+        <v>-0.009376979542724996</v>
       </c>
       <c r="C40">
-        <v>-0.01738248632149582</v>
+        <v>-0.05124918960466655</v>
       </c>
       <c r="D40">
-        <v>-0.07698054367083965</v>
+        <v>-0.01215082239484742</v>
       </c>
       <c r="E40">
-        <v>0.1081479814687387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1344829269012139</v>
+      </c>
+      <c r="F40">
+        <v>-0.02267203049531368</v>
+      </c>
+      <c r="G40">
+        <v>-0.06599118924967627</v>
+      </c>
+      <c r="H40">
+        <v>-0.002470814286335272</v>
+      </c>
+      <c r="I40">
+        <v>-0.01619338942033419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003498174374045449</v>
+        <v>-0.01633252670273216</v>
       </c>
       <c r="C41">
-        <v>-0.02747684359387711</v>
+        <v>-0.04752470487204933</v>
       </c>
       <c r="D41">
-        <v>0.002112512702952974</v>
+        <v>0.002041378047732921</v>
       </c>
       <c r="E41">
-        <v>-0.005448864354872592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.007064563390563507</v>
+      </c>
+      <c r="F41">
+        <v>0.004747246758018573</v>
+      </c>
+      <c r="G41">
+        <v>-0.01194102166189607</v>
+      </c>
+      <c r="H41">
+        <v>0.03379092256340258</v>
+      </c>
+      <c r="I41">
+        <v>-0.04674198836273359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007723822061731951</v>
+        <v>-0.0083279851464176</v>
       </c>
       <c r="C43">
-        <v>-0.01974304427445307</v>
+        <v>-0.03972076538638351</v>
       </c>
       <c r="D43">
-        <v>-0.01708335000985175</v>
+        <v>0.01020418095884292</v>
       </c>
       <c r="E43">
-        <v>0.01550191080730791</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03395906141604912</v>
+      </c>
+      <c r="F43">
+        <v>0.01470177132104551</v>
+      </c>
+      <c r="G43">
+        <v>-0.02066369075939628</v>
+      </c>
+      <c r="H43">
+        <v>0.05026805995748488</v>
+      </c>
+      <c r="I43">
+        <v>-0.0229373807274409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01735869060745559</v>
+        <v>-0.007101064308464643</v>
       </c>
       <c r="C44">
-        <v>-0.08102628950861912</v>
+        <v>-0.08991924517246928</v>
       </c>
       <c r="D44">
-        <v>-0.1024501789349004</v>
+        <v>0.01753123216379197</v>
       </c>
       <c r="E44">
-        <v>0.06917704960413119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1036280187622915</v>
+      </c>
+      <c r="F44">
+        <v>0.00769550273602458</v>
+      </c>
+      <c r="G44">
+        <v>0.006044180375907756</v>
+      </c>
+      <c r="H44">
+        <v>0.02991727346858878</v>
+      </c>
+      <c r="I44">
+        <v>0.02848325699604099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004482593290017606</v>
+        <v>0.001776612393946401</v>
       </c>
       <c r="C46">
-        <v>-0.04319765231933067</v>
+        <v>-0.05749753467925507</v>
       </c>
       <c r="D46">
-        <v>-0.06297099563584783</v>
+        <v>0.01042176483265524</v>
       </c>
       <c r="E46">
-        <v>0.08914224659580187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08065820339983744</v>
+      </c>
+      <c r="F46">
+        <v>0.003410357406726491</v>
+      </c>
+      <c r="G46">
+        <v>-0.05027805632608913</v>
+      </c>
+      <c r="H46">
+        <v>0.1216817306071287</v>
+      </c>
+      <c r="I46">
+        <v>0.01065222757865924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.01949030336935973</v>
+        <v>-0.02203794984618622</v>
       </c>
       <c r="C47">
-        <v>-0.1174339700589812</v>
+        <v>-0.1055961688277892</v>
       </c>
       <c r="D47">
-        <v>0.004497243255247473</v>
+        <v>0.02135115285759686</v>
       </c>
       <c r="E47">
-        <v>-0.02492375762355206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008527853911346169</v>
+      </c>
+      <c r="F47">
+        <v>0.01415234017817255</v>
+      </c>
+      <c r="G47">
+        <v>0.004555110767687651</v>
+      </c>
+      <c r="H47">
+        <v>0.07724030378111099</v>
+      </c>
+      <c r="I47">
+        <v>-0.03357498791751798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.00734313241829828</v>
+        <v>-0.01526216211262167</v>
       </c>
       <c r="C48">
-        <v>-0.03320779903343832</v>
+        <v>-0.04810150934239944</v>
       </c>
       <c r="D48">
-        <v>-0.0300499339774364</v>
+        <v>0.02946437520826125</v>
       </c>
       <c r="E48">
-        <v>0.08190813982737057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.07213765088592991</v>
+      </c>
+      <c r="F48">
+        <v>0.008359617147256783</v>
+      </c>
+      <c r="G48">
+        <v>-0.01639810985463323</v>
+      </c>
+      <c r="H48">
+        <v>0.1242668730234188</v>
+      </c>
+      <c r="I48">
+        <v>0.005589500959974609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.004021223364168642</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.008866254694579117</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008019848163322022</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0006929162117720916</v>
+      </c>
+      <c r="F49">
+        <v>-0.006740145512484907</v>
+      </c>
+      <c r="G49">
+        <v>-0.02192231152465791</v>
+      </c>
+      <c r="H49">
+        <v>-0.006294560660157489</v>
+      </c>
+      <c r="I49">
+        <v>-0.001448226961495143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.002333854059955169</v>
+        <v>-0.008943210061140419</v>
       </c>
       <c r="C50">
-        <v>-0.05932320206338818</v>
+        <v>-0.07322937567329035</v>
       </c>
       <c r="D50">
-        <v>-0.02033686991459881</v>
+        <v>0.00234857860229219</v>
       </c>
       <c r="E50">
-        <v>0.02432918463934376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02500798901602322</v>
+      </c>
+      <c r="F50">
+        <v>0.0138448535060717</v>
+      </c>
+      <c r="G50">
+        <v>0.01299346838611178</v>
+      </c>
+      <c r="H50">
+        <v>0.05873119931755631</v>
+      </c>
+      <c r="I50">
+        <v>-0.0461017697191231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.004325127340310143</v>
+        <v>0.00478667251977789</v>
       </c>
       <c r="C51">
-        <v>-0.03008858046666397</v>
+        <v>-0.03514749174271604</v>
       </c>
       <c r="D51">
-        <v>-0.08216680629309413</v>
+        <v>-0.0003672887018659972</v>
       </c>
       <c r="E51">
-        <v>0.06248988751430074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.06370711166477334</v>
+      </c>
+      <c r="F51">
+        <v>-0.005685198610342364</v>
+      </c>
+      <c r="G51">
+        <v>0.006197894935704746</v>
+      </c>
+      <c r="H51">
+        <v>0.1076462132028666</v>
+      </c>
+      <c r="I51">
+        <v>0.03111340236799042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.05730079575312839</v>
+        <v>-0.05499185562145355</v>
       </c>
       <c r="C53">
-        <v>-0.1661354166670124</v>
+        <v>-0.1563669065043568</v>
       </c>
       <c r="D53">
-        <v>0.04682039162264156</v>
+        <v>0.04502162561001062</v>
       </c>
       <c r="E53">
-        <v>-0.0228474339155707</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.08115230675951539</v>
+      </c>
+      <c r="F53">
+        <v>0.008980539390563879</v>
+      </c>
+      <c r="G53">
+        <v>0.02887444040344263</v>
+      </c>
+      <c r="H53">
+        <v>0.01373039993061995</v>
+      </c>
+      <c r="I53">
+        <v>-0.01895108532484891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.005853065577959703</v>
+        <v>-0.01392070271539059</v>
       </c>
       <c r="C54">
-        <v>-0.04225808422543523</v>
+        <v>-0.06186653472160964</v>
       </c>
       <c r="D54">
-        <v>-0.06465255790137656</v>
+        <v>-0.02025149176561311</v>
       </c>
       <c r="E54">
-        <v>0.01590190362182032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05103089176332744</v>
+      </c>
+      <c r="F54">
+        <v>0.01116641995771608</v>
+      </c>
+      <c r="G54">
+        <v>-0.009714086839615468</v>
+      </c>
+      <c r="H54">
+        <v>0.09152717870745955</v>
+      </c>
+      <c r="I54">
+        <v>0.03577504091237797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.04220028236681902</v>
+        <v>-0.03404429574428379</v>
       </c>
       <c r="C55">
-        <v>-0.1308941242048914</v>
+        <v>-0.114702085933873</v>
       </c>
       <c r="D55">
-        <v>0.04807510705303961</v>
+        <v>0.05039436963488495</v>
       </c>
       <c r="E55">
-        <v>-0.004955801992517493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.06611852780150021</v>
+      </c>
+      <c r="F55">
+        <v>-0.004116437526866632</v>
+      </c>
+      <c r="G55">
+        <v>0.02142237696772934</v>
+      </c>
+      <c r="H55">
+        <v>0.0218538249850579</v>
+      </c>
+      <c r="I55">
+        <v>0.02097364836413796</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.05864865287329422</v>
+        <v>-0.0491508960623228</v>
       </c>
       <c r="C56">
-        <v>-0.1936110499505249</v>
+        <v>-0.1818141513128864</v>
       </c>
       <c r="D56">
-        <v>0.06413738055566115</v>
+        <v>0.06701711056564599</v>
       </c>
       <c r="E56">
-        <v>-0.04926295495287285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.1068997822861844</v>
+      </c>
+      <c r="F56">
+        <v>0.0006439396843992515</v>
+      </c>
+      <c r="G56">
+        <v>0.06701480018906208</v>
+      </c>
+      <c r="H56">
+        <v>-0.000421773149040132</v>
+      </c>
+      <c r="I56">
+        <v>-0.01663589825928258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01126103931065148</v>
+        <v>-0.00821865009701233</v>
       </c>
       <c r="C58">
-        <v>-0.109410720575924</v>
+        <v>-0.1403286713033318</v>
       </c>
       <c r="D58">
-        <v>-0.2945268317682375</v>
+        <v>-0.05761154708912168</v>
       </c>
       <c r="E58">
-        <v>0.1006450131961276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2568654275606272</v>
+      </c>
+      <c r="F58">
+        <v>0.05999407447324433</v>
+      </c>
+      <c r="G58">
+        <v>0.2417410757974173</v>
+      </c>
+      <c r="H58">
+        <v>-0.004671234971864002</v>
+      </c>
+      <c r="I58">
+        <v>0.02272886204663074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2518921246756912</v>
+        <v>-0.272690341654744</v>
       </c>
       <c r="C59">
-        <v>0.03901689702469819</v>
+        <v>0.03937280171955347</v>
       </c>
       <c r="D59">
-        <v>-0.07530772767532962</v>
+        <v>-0.01598121954573341</v>
       </c>
       <c r="E59">
-        <v>0.0009029928650763349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04497123429279178</v>
+      </c>
+      <c r="F59">
+        <v>-0.02103168962253233</v>
+      </c>
+      <c r="G59">
+        <v>0.01993236409477364</v>
+      </c>
+      <c r="H59">
+        <v>-0.02069313776779781</v>
+      </c>
+      <c r="I59">
+        <v>-0.09742141370268875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1234297434882573</v>
+        <v>-0.1467639940122623</v>
       </c>
       <c r="C60">
-        <v>-0.1505100838246524</v>
+        <v>-0.1618873902249767</v>
       </c>
       <c r="D60">
-        <v>-0.01113082192827309</v>
+        <v>0.01492819611046562</v>
       </c>
       <c r="E60">
-        <v>0.05038259587375482</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02506325352791767</v>
+      </c>
+      <c r="F60">
+        <v>-0.1026629695662171</v>
+      </c>
+      <c r="G60">
+        <v>-0.2746723863942703</v>
+      </c>
+      <c r="H60">
+        <v>-0.2762269257130246</v>
+      </c>
+      <c r="I60">
+        <v>0.05200804557179174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.008237462028160282</v>
+        <v>-0.0151485604333563</v>
       </c>
       <c r="C61">
-        <v>-0.07387971074742153</v>
+        <v>-0.09735525566171264</v>
       </c>
       <c r="D61">
-        <v>-0.04768239973653374</v>
+        <v>0.0152920683723352</v>
       </c>
       <c r="E61">
-        <v>0.05586754204670875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05893579114479933</v>
+      </c>
+      <c r="F61">
+        <v>0.0005499337938642784</v>
+      </c>
+      <c r="G61">
+        <v>-0.0549405735948504</v>
+      </c>
+      <c r="H61">
+        <v>0.0579362187458976</v>
+      </c>
+      <c r="I61">
+        <v>0.0192948323239531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006524239998492529</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0006751334229526325</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001354624058945958</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0004813554585394939</v>
+      </c>
+      <c r="F62">
+        <v>0.001004789605962047</v>
+      </c>
+      <c r="G62">
+        <v>0.002371576314616338</v>
+      </c>
+      <c r="H62">
+        <v>0.005374689786397636</v>
+      </c>
+      <c r="I62">
+        <v>-0.00234374260714098</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006874036293421717</v>
+        <v>-0.01582765349851491</v>
       </c>
       <c r="C63">
-        <v>-0.05021648678351516</v>
+        <v>-0.06844015938707233</v>
       </c>
       <c r="D63">
-        <v>-0.04116958155164872</v>
+        <v>0.01976623753409139</v>
       </c>
       <c r="E63">
-        <v>0.03245844281797474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05607495321818191</v>
+      </c>
+      <c r="F63">
+        <v>-0.001750723846404038</v>
+      </c>
+      <c r="G63">
+        <v>-0.03460554992007796</v>
+      </c>
+      <c r="H63">
+        <v>0.07679488387330236</v>
+      </c>
+      <c r="I63">
+        <v>-0.01732864390397075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.01145778770252578</v>
+        <v>-0.01277121756875117</v>
       </c>
       <c r="C64">
-        <v>-0.1308069835530943</v>
+        <v>-0.1134215487524814</v>
       </c>
       <c r="D64">
-        <v>0.004530611373792477</v>
+        <v>0.02009564413745403</v>
       </c>
       <c r="E64">
-        <v>0.04923331664632415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01294974954757289</v>
+      </c>
+      <c r="F64">
+        <v>0.02929939890148828</v>
+      </c>
+      <c r="G64">
+        <v>-0.02178297503653174</v>
+      </c>
+      <c r="H64">
+        <v>-0.003779353193949142</v>
+      </c>
+      <c r="I64">
+        <v>-0.01336139326148486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01659755802717363</v>
+        <v>-0.02437320897375215</v>
       </c>
       <c r="C65">
-        <v>-0.06083243051240888</v>
+        <v>-0.08080896486934352</v>
       </c>
       <c r="D65">
-        <v>-0.07256982295702591</v>
+        <v>-0.01757248476811615</v>
       </c>
       <c r="E65">
-        <v>0.05879447964235678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.09700602446085396</v>
+      </c>
+      <c r="F65">
+        <v>0.01049400032026664</v>
+      </c>
+      <c r="G65">
+        <v>-0.06856836223396505</v>
+      </c>
+      <c r="H65">
+        <v>-0.006365124304485515</v>
+      </c>
+      <c r="I65">
+        <v>0.03008864115896013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.001170946106513018</v>
+        <v>-0.007392613277138704</v>
       </c>
       <c r="C66">
-        <v>-0.1144592847079971</v>
+        <v>-0.1420393988831813</v>
       </c>
       <c r="D66">
-        <v>-0.1231576381015473</v>
+        <v>-0.01225841274304913</v>
       </c>
       <c r="E66">
-        <v>0.0793424749214881</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.1015967947202166</v>
+      </c>
+      <c r="F66">
+        <v>-0.0003617121170880202</v>
+      </c>
+      <c r="G66">
+        <v>-0.02518025216497806</v>
+      </c>
+      <c r="H66">
+        <v>0.04993617465610816</v>
+      </c>
+      <c r="I66">
+        <v>0.03962888964237389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01486788316450898</v>
+        <v>-0.01624362775856516</v>
       </c>
       <c r="C67">
-        <v>-0.02994014755516908</v>
+        <v>-0.05037060017906352</v>
       </c>
       <c r="D67">
-        <v>0.003307252584587776</v>
+        <v>0.02045584191377321</v>
       </c>
       <c r="E67">
-        <v>0.03757913096805526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03828860700114362</v>
+      </c>
+      <c r="F67">
+        <v>0.03704600510832293</v>
+      </c>
+      <c r="G67">
+        <v>-0.03654714384647213</v>
+      </c>
+      <c r="H67">
+        <v>0.0415814483076421</v>
+      </c>
+      <c r="I67">
+        <v>-0.02271715221415432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2519027942586498</v>
+        <v>-0.2834906953373281</v>
       </c>
       <c r="C68">
-        <v>0.04543093669238744</v>
+        <v>0.04426896849458695</v>
       </c>
       <c r="D68">
-        <v>-0.05253995257430968</v>
+        <v>-0.03611623922623692</v>
       </c>
       <c r="E68">
-        <v>-0.008879367301307593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.03634937727651812</v>
+      </c>
+      <c r="F68">
+        <v>0.007611934009432008</v>
+      </c>
+      <c r="G68">
+        <v>0.05695368698139978</v>
+      </c>
+      <c r="H68">
+        <v>-0.02322815106368277</v>
+      </c>
+      <c r="I68">
+        <v>-0.1012542037629117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.02003954505283859</v>
+        <v>-0.01091835379066667</v>
       </c>
       <c r="C69">
-        <v>-0.1213397201914371</v>
+        <v>-0.09334544586328748</v>
       </c>
       <c r="D69">
-        <v>0.01760927507737528</v>
+        <v>0.02309369531914538</v>
       </c>
       <c r="E69">
-        <v>0.02581596158605282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01349545309532249</v>
+      </c>
+      <c r="F69">
+        <v>0.01088780055798083</v>
+      </c>
+      <c r="G69">
+        <v>-0.000698011847351244</v>
+      </c>
+      <c r="H69">
+        <v>0.04906094650618395</v>
+      </c>
+      <c r="I69">
+        <v>-0.03361412594474536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.265864889086607</v>
+        <v>-0.2708659810945037</v>
       </c>
       <c r="C71">
-        <v>0.06963262620007078</v>
+        <v>0.06775549547107142</v>
       </c>
       <c r="D71">
-        <v>-0.04479932396955646</v>
+        <v>-0.02052466393215212</v>
       </c>
       <c r="E71">
-        <v>-0.03331442226062985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03427804215437772</v>
+      </c>
+      <c r="F71">
+        <v>0.02861117820885107</v>
+      </c>
+      <c r="G71">
+        <v>0.0125062590361792</v>
+      </c>
+      <c r="H71">
+        <v>0.06578925057587194</v>
+      </c>
+      <c r="I71">
+        <v>-0.1182782656278131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.06023523914889763</v>
+        <v>-0.05852418365228294</v>
       </c>
       <c r="C72">
-        <v>-0.1580929344249639</v>
+        <v>-0.1535053331061008</v>
       </c>
       <c r="D72">
-        <v>-0.04034976335940642</v>
+        <v>0.00890647432453489</v>
       </c>
       <c r="E72">
-        <v>0.1125534755706755</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.02109422487587993</v>
+      </c>
+      <c r="F72">
+        <v>-0.01148067441608499</v>
+      </c>
+      <c r="G72">
+        <v>-0.04675763288344209</v>
+      </c>
+      <c r="H72">
+        <v>-0.04334779530698158</v>
+      </c>
+      <c r="I72">
+        <v>0.08862327680826822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1075017690623221</v>
+        <v>-0.1458116663377724</v>
       </c>
       <c r="C73">
-        <v>-0.1671923627875334</v>
+        <v>-0.2034957732434216</v>
       </c>
       <c r="D73">
-        <v>0.0007910779340727192</v>
+        <v>0.03148610113407222</v>
       </c>
       <c r="E73">
-        <v>0.07005996403450991</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.03509401335466998</v>
+      </c>
+      <c r="F73">
+        <v>-0.1165891629343212</v>
+      </c>
+      <c r="G73">
+        <v>-0.4467738444018527</v>
+      </c>
+      <c r="H73">
+        <v>-0.2734087398121385</v>
+      </c>
+      <c r="I73">
+        <v>-0.02696905766298588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.04712574723464425</v>
+        <v>-0.04215224521884463</v>
       </c>
       <c r="C74">
-        <v>-0.1286312047357428</v>
+        <v>-0.1214731335228226</v>
       </c>
       <c r="D74">
-        <v>0.07066027382098175</v>
+        <v>0.04717893513562887</v>
       </c>
       <c r="E74">
-        <v>-0.007651006513237323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0684235624901334</v>
+      </c>
+      <c r="F74">
+        <v>0.0132301239705656</v>
+      </c>
+      <c r="G74">
+        <v>0.01556533144229728</v>
+      </c>
+      <c r="H74">
+        <v>0.01844217646229961</v>
+      </c>
+      <c r="I74">
+        <v>0.01589039126330435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.110399028824002</v>
+        <v>-0.07533010576227958</v>
       </c>
       <c r="C75">
-        <v>-0.2616513137638869</v>
+        <v>-0.2275917690907261</v>
       </c>
       <c r="D75">
-        <v>0.1714579407251922</v>
+        <v>0.09721577203844287</v>
       </c>
       <c r="E75">
-        <v>-0.07055650379738372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.214969919734797</v>
+      </c>
+      <c r="F75">
+        <v>0.08097008192833552</v>
+      </c>
+      <c r="G75">
+        <v>0.08013410525849637</v>
+      </c>
+      <c r="H75">
+        <v>-0.01416026064588003</v>
+      </c>
+      <c r="I75">
+        <v>-0.05831343676904122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.0496096357510323</v>
+        <v>-0.04261659774396464</v>
       </c>
       <c r="C76">
-        <v>-0.1671550084945456</v>
+        <v>-0.1584654943706492</v>
       </c>
       <c r="D76">
-        <v>0.08466559803338534</v>
+        <v>0.07302555886008187</v>
       </c>
       <c r="E76">
-        <v>-0.02232939711040096</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0932762247918586</v>
+      </c>
+      <c r="F76">
+        <v>0.00194143963201209</v>
+      </c>
+      <c r="G76">
+        <v>-0.0005442236839061891</v>
+      </c>
+      <c r="H76">
+        <v>0.02377792027848512</v>
+      </c>
+      <c r="I76">
+        <v>-0.003389941253326556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02315733582962412</v>
+        <v>-0.02081961496627544</v>
       </c>
       <c r="C77">
-        <v>-0.1211240858461313</v>
+        <v>-0.1974384247110959</v>
       </c>
       <c r="D77">
-        <v>-0.4713869620404676</v>
+        <v>-0.9393641416113829</v>
       </c>
       <c r="E77">
-        <v>-0.7999356022303719</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.2409971068926528</v>
+      </c>
+      <c r="F77">
+        <v>0.02319954702647409</v>
+      </c>
+      <c r="G77">
+        <v>-0.03003112281980149</v>
+      </c>
+      <c r="H77">
+        <v>0.04913381215006015</v>
+      </c>
+      <c r="I77">
+        <v>0.0285339798663381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.01625656245535799</v>
+        <v>-0.02304457759041976</v>
       </c>
       <c r="C78">
-        <v>-0.1142607184222654</v>
+        <v>-0.1133528138245663</v>
       </c>
       <c r="D78">
-        <v>-0.13028599735365</v>
+        <v>0.03479660511258466</v>
       </c>
       <c r="E78">
-        <v>0.07268388770506709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08271918867319333</v>
+      </c>
+      <c r="F78">
+        <v>-0.0159645419456004</v>
+      </c>
+      <c r="G78">
+        <v>0.07486923408632276</v>
+      </c>
+      <c r="H78">
+        <v>0.1394495662619013</v>
+      </c>
+      <c r="I78">
+        <v>0.1220593254412007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.07704114620724133</v>
+        <v>-0.06244179574143596</v>
       </c>
       <c r="C79">
-        <v>-0.286608286350879</v>
+        <v>-0.2249293177718576</v>
       </c>
       <c r="D79">
-        <v>0.186111908866734</v>
+        <v>0.08904263198490432</v>
       </c>
       <c r="E79">
-        <v>-0.09924154535982306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.2236971717286202</v>
+      </c>
+      <c r="F79">
+        <v>0.02085342796896895</v>
+      </c>
+      <c r="G79">
+        <v>0.1577610459585976</v>
+      </c>
+      <c r="H79">
+        <v>0.03748533177418246</v>
+      </c>
+      <c r="I79">
+        <v>-0.08034600735718085</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01022433007375955</v>
+        <v>-0.007551380771397178</v>
       </c>
       <c r="C80">
-        <v>-0.06089794330484438</v>
+        <v>-0.06060676517978002</v>
       </c>
       <c r="D80">
-        <v>-0.004915689128253132</v>
+        <v>0.03009502402906484</v>
       </c>
       <c r="E80">
-        <v>0.04644567968169731</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.05215031005500434</v>
+      </c>
+      <c r="F80">
+        <v>-0.06971946373532009</v>
+      </c>
+      <c r="G80">
+        <v>-0.04548558955298416</v>
+      </c>
+      <c r="H80">
+        <v>-0.03833056758097372</v>
+      </c>
+      <c r="I80">
+        <v>-0.0480646301184142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.04539379848676327</v>
+        <v>-0.02580684977297852</v>
       </c>
       <c r="C81">
-        <v>-0.1524077902554624</v>
+        <v>-0.1373945342402179</v>
       </c>
       <c r="D81">
-        <v>0.1016563128992249</v>
+        <v>0.04804922102251318</v>
       </c>
       <c r="E81">
-        <v>-0.05245267334177097</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.09448718365533225</v>
+      </c>
+      <c r="F81">
+        <v>0.01895011762219956</v>
+      </c>
+      <c r="G81">
+        <v>0.05436686643741327</v>
+      </c>
+      <c r="H81">
+        <v>0.06402292963167799</v>
+      </c>
+      <c r="I81">
+        <v>-0.06755131011637458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.08538256713107269</v>
+        <v>-0.05859006785501567</v>
       </c>
       <c r="C82">
-        <v>-0.2352564916364959</v>
+        <v>-0.1841702623591959</v>
       </c>
       <c r="D82">
-        <v>0.1398879407387582</v>
+        <v>0.09020224433979669</v>
       </c>
       <c r="E82">
-        <v>-0.04422063689968017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1510276103352629</v>
+      </c>
+      <c r="F82">
+        <v>-0.0001570961833646075</v>
+      </c>
+      <c r="G82">
+        <v>0.04113895022964808</v>
+      </c>
+      <c r="H82">
+        <v>0.03958334389217572</v>
+      </c>
+      <c r="I82">
+        <v>-0.05180409445295413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01127407461465231</v>
+        <v>0.001278501004343338</v>
       </c>
       <c r="C83">
-        <v>-0.06282417990898578</v>
+        <v>-0.02040220870162201</v>
       </c>
       <c r="D83">
-        <v>-0.057839033761499</v>
+        <v>-0.03522373794258648</v>
       </c>
       <c r="E83">
-        <v>0.007229890342493508</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.007934112220940806</v>
+      </c>
+      <c r="F83">
+        <v>-0.9295454111693547</v>
+      </c>
+      <c r="G83">
+        <v>0.2417855711845613</v>
+      </c>
+      <c r="H83">
+        <v>-0.02160105165796862</v>
+      </c>
+      <c r="I83">
+        <v>-0.1030941569224571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.00367198919619385</v>
+        <v>0.002399065839140589</v>
       </c>
       <c r="C84">
-        <v>-0.02091926645074272</v>
+        <v>-0.03468769693424729</v>
       </c>
       <c r="D84">
-        <v>-0.04057454966135501</v>
+        <v>0.03410486895699907</v>
       </c>
       <c r="E84">
-        <v>0.06191535074725127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.07074702643939312</v>
+      </c>
+      <c r="F84">
+        <v>0.04748499416395928</v>
+      </c>
+      <c r="G84">
+        <v>0.0617815989569206</v>
+      </c>
+      <c r="H84">
+        <v>0.06146070178989373</v>
+      </c>
+      <c r="I84">
+        <v>0.05754283570566232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.05277055350160594</v>
+        <v>-0.03872623449213269</v>
       </c>
       <c r="C85">
-        <v>-0.1910170308224376</v>
+        <v>-0.1620194049833797</v>
       </c>
       <c r="D85">
-        <v>0.1333326812749088</v>
+        <v>0.09242861828535782</v>
       </c>
       <c r="E85">
-        <v>-0.04125495980037963</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1551037755159234</v>
+      </c>
+      <c r="F85">
+        <v>0.009976600812996459</v>
+      </c>
+      <c r="G85">
+        <v>0.06805703190555885</v>
+      </c>
+      <c r="H85">
+        <v>0.01836344775202126</v>
+      </c>
+      <c r="I85">
+        <v>-0.03523347713252269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01816157916447613</v>
+        <v>-0.01365573759891459</v>
       </c>
       <c r="C86">
-        <v>-0.04195924948880556</v>
+        <v>-0.067131003006472</v>
       </c>
       <c r="D86">
-        <v>-0.09689906076722328</v>
+        <v>-0.02202561871975489</v>
       </c>
       <c r="E86">
-        <v>-0.04443088769759649</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.06294197379301658</v>
+      </c>
+      <c r="F86">
+        <v>0.04152784036853147</v>
+      </c>
+      <c r="G86">
+        <v>0.07661067291945284</v>
+      </c>
+      <c r="H86">
+        <v>0.07163156043862975</v>
+      </c>
+      <c r="I86">
+        <v>-0.07781673450925002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01953839401199048</v>
+        <v>-0.01457424163353027</v>
       </c>
       <c r="C87">
-        <v>-0.09521939969343476</v>
+        <v>-0.1138483967166907</v>
       </c>
       <c r="D87">
-        <v>-0.152772686502623</v>
+        <v>-0.03755235082214238</v>
       </c>
       <c r="E87">
-        <v>0.07423701095325452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1175632156641621</v>
+      </c>
+      <c r="F87">
+        <v>0.01782241040000087</v>
+      </c>
+      <c r="G87">
+        <v>0.03887677217737046</v>
+      </c>
+      <c r="H87">
+        <v>0.02310224662262997</v>
+      </c>
+      <c r="I87">
+        <v>0.1408221951688616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02128556419551775</v>
+        <v>-0.03258089579885275</v>
       </c>
       <c r="C88">
-        <v>-0.07737107635508421</v>
+        <v>-0.08269279409107833</v>
       </c>
       <c r="D88">
-        <v>0.04205609190979656</v>
+        <v>0.02310709932420573</v>
       </c>
       <c r="E88">
-        <v>0.006851707584703749</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.005631130185618243</v>
+      </c>
+      <c r="F88">
+        <v>0.007264600943864967</v>
+      </c>
+      <c r="G88">
+        <v>-0.025506356245328</v>
+      </c>
+      <c r="H88">
+        <v>0.009845376448645644</v>
+      </c>
+      <c r="I88">
+        <v>-0.03164082986544724</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4495737420399489</v>
+        <v>-0.4125563585506326</v>
       </c>
       <c r="C89">
-        <v>0.1390633305633006</v>
+        <v>0.1283518527150947</v>
       </c>
       <c r="D89">
-        <v>0.01333924487309998</v>
+        <v>-0.008546791729436971</v>
       </c>
       <c r="E89">
-        <v>0.2395838235727775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03925175577832016</v>
+      </c>
+      <c r="F89">
+        <v>-0.07652380261448975</v>
+      </c>
+      <c r="G89">
+        <v>0.1004212125771627</v>
+      </c>
+      <c r="H89">
+        <v>0.051050581628184</v>
+      </c>
+      <c r="I89">
+        <v>0.786372375283736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.322804669548644</v>
+        <v>-0.3233938565446768</v>
       </c>
       <c r="C90">
-        <v>0.09037920077234325</v>
+        <v>0.07713391899537193</v>
       </c>
       <c r="D90">
-        <v>-0.0857766118994404</v>
+        <v>-0.0243585660456334</v>
       </c>
       <c r="E90">
-        <v>0.0005842372622699897</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04847643368370471</v>
+      </c>
+      <c r="F90">
+        <v>0.008518386693573764</v>
+      </c>
+      <c r="G90">
+        <v>0.01933993944747264</v>
+      </c>
+      <c r="H90">
+        <v>-0.01617507137461589</v>
+      </c>
+      <c r="I90">
+        <v>-0.1540220795480605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.06146765407973294</v>
+        <v>-0.05564917761873747</v>
       </c>
       <c r="C91">
-        <v>-0.1829165295343692</v>
+        <v>-0.1482678651391861</v>
       </c>
       <c r="D91">
-        <v>0.1074909748470244</v>
+        <v>0.051864941924535</v>
       </c>
       <c r="E91">
-        <v>-0.06436905963492577</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1322294139606318</v>
+      </c>
+      <c r="F91">
+        <v>-0.02386415834520489</v>
+      </c>
+      <c r="G91">
+        <v>0.05468672833682799</v>
+      </c>
+      <c r="H91">
+        <v>0.01255084633378688</v>
+      </c>
+      <c r="I91">
+        <v>-0.02618293816492633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3388728957798595</v>
+        <v>-0.3473472944915506</v>
       </c>
       <c r="C92">
-        <v>0.1341354722493529</v>
+        <v>0.1246993837648311</v>
       </c>
       <c r="D92">
-        <v>-0.05823634598678484</v>
+        <v>-0.04953731093512257</v>
       </c>
       <c r="E92">
-        <v>-0.05182037957387377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.04703208070638782</v>
+      </c>
+      <c r="F92">
+        <v>0.09442484719127418</v>
+      </c>
+      <c r="G92">
+        <v>0.02796483199346968</v>
+      </c>
+      <c r="H92">
+        <v>0.04003744934393144</v>
+      </c>
+      <c r="I92">
+        <v>-0.165776591665921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3369710179183753</v>
+        <v>-0.3268745170153511</v>
       </c>
       <c r="C93">
-        <v>0.1132214395182295</v>
+        <v>0.1138183758293376</v>
       </c>
       <c r="D93">
-        <v>0.01021376265424621</v>
+        <v>0.00636471800499875</v>
       </c>
       <c r="E93">
-        <v>-0.01775546245775755</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.007447143536117797</v>
+      </c>
+      <c r="F93">
+        <v>0.02042932856622813</v>
+      </c>
+      <c r="G93">
+        <v>0.03164185187518936</v>
+      </c>
+      <c r="H93">
+        <v>0.04019141759957882</v>
+      </c>
+      <c r="I93">
+        <v>-0.1051881230738558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1178541181175174</v>
+        <v>-0.09428498585085107</v>
       </c>
       <c r="C94">
-        <v>-0.3043927567995785</v>
+        <v>-0.2504562192702366</v>
       </c>
       <c r="D94">
-        <v>0.2631585520573554</v>
+        <v>0.1472190748312066</v>
       </c>
       <c r="E94">
-        <v>-0.08421780363774484</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3677170433576394</v>
+      </c>
+      <c r="F94">
+        <v>0.03850531588581908</v>
+      </c>
+      <c r="G94">
+        <v>0.2521218969244965</v>
+      </c>
+      <c r="H94">
+        <v>-0.1227695409058341</v>
+      </c>
+      <c r="I94">
+        <v>0.1748249405684957</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03245665722929432</v>
+        <v>-0.03531281039958931</v>
       </c>
       <c r="C95">
-        <v>-0.06634890064301587</v>
+        <v>-0.1089875434643058</v>
       </c>
       <c r="D95">
-        <v>-0.007092941054660804</v>
+        <v>-0.004472038100515892</v>
       </c>
       <c r="E95">
-        <v>0.02065668877309948</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03499889800124378</v>
+      </c>
+      <c r="F95">
+        <v>0.02718955178898022</v>
+      </c>
+      <c r="G95">
+        <v>-0.1242503869134018</v>
+      </c>
+      <c r="H95">
+        <v>0.05928025065951117</v>
+      </c>
+      <c r="I95">
+        <v>0.004148347448363115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.003351460949761211</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.006125350135148539</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01946773657960141</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.008933568788645509</v>
+      </c>
+      <c r="F97">
+        <v>0.01624279748562194</v>
+      </c>
+      <c r="G97">
+        <v>-0.0204164885969473</v>
+      </c>
+      <c r="H97">
+        <v>0.004342785325869967</v>
+      </c>
+      <c r="I97">
+        <v>-0.02203037292071486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.08324184718963469</v>
+        <v>-0.1251213420582898</v>
       </c>
       <c r="C98">
-        <v>-0.127901176955428</v>
+        <v>-0.1584645928974336</v>
       </c>
       <c r="D98">
-        <v>-0.05692018787304141</v>
+        <v>0.03117715568008491</v>
       </c>
       <c r="E98">
-        <v>0.07152999877991628</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0672203008137963</v>
+      </c>
+      <c r="F98">
+        <v>-0.07522733746300478</v>
+      </c>
+      <c r="G98">
+        <v>-0.38443974470758</v>
+      </c>
+      <c r="H98">
+        <v>-0.3241511373001013</v>
+      </c>
+      <c r="I98">
+        <v>0.02848782179600266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00282576732612284</v>
+        <v>-0.003114837683588577</v>
       </c>
       <c r="C101">
-        <v>-0.03196941754588488</v>
+        <v>-0.06131261674719572</v>
       </c>
       <c r="D101">
-        <v>-0.07378506760714947</v>
+        <v>0.003767073789856328</v>
       </c>
       <c r="E101">
-        <v>0.08168083230577629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1206176622429807</v>
+      </c>
+      <c r="F101">
+        <v>-0.03576873827166917</v>
+      </c>
+      <c r="G101">
+        <v>-0.08505149605418981</v>
+      </c>
+      <c r="H101">
+        <v>0.1991566892339576</v>
+      </c>
+      <c r="I101">
+        <v>0.04979215451902486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.03592613415170397</v>
+        <v>-0.01430195553978661</v>
       </c>
       <c r="C102">
-        <v>-0.1209657574772502</v>
+        <v>-0.06749467902847929</v>
       </c>
       <c r="D102">
-        <v>0.06652435818712228</v>
+        <v>0.03231018243044911</v>
       </c>
       <c r="E102">
-        <v>-0.02036825195973628</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.08111217213313875</v>
+      </c>
+      <c r="F102">
+        <v>-0.01145747938682549</v>
+      </c>
+      <c r="G102">
+        <v>0.03940841305450573</v>
+      </c>
+      <c r="H102">
+        <v>0.003506687014162949</v>
+      </c>
+      <c r="I102">
+        <v>0.008833514018966012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
